--- a/output/PANDHORA_24140265000153.xlsx
+++ b/output/PANDHORA_24140265000153.xlsx
@@ -988,10 +988,10 @@
         <v>44165</v>
       </c>
       <c r="B55">
-        <v>0.5612159000000001</v>
+        <v>0.5626905</v>
       </c>
       <c r="C55">
-        <v>0.01702714891537416</v>
+        <v>0.01798775163136668</v>
       </c>
     </row>
   </sheetData>

--- a/output/PANDHORA_24140265000153.xlsx
+++ b/output/PANDHORA_24140265000153.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PANDHORA ESSENCIAL FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,612 +383,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42551</v>
       </c>
       <c r="B2">
-        <v>0.02063799999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42582</v>
       </c>
       <c r="B3">
-        <v>0.0397183000000001</v>
-      </c>
-      <c r="C3">
         <v>0.01869448325459189</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42613</v>
       </c>
       <c r="B4">
-        <v>0.05388389999999998</v>
-      </c>
-      <c r="C4">
         <v>0.01362445962526571</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42643</v>
       </c>
       <c r="B5">
-        <v>0.05839320000000003</v>
-      </c>
-      <c r="C5">
         <v>0.004278744556207803</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42674</v>
       </c>
       <c r="B6">
-        <v>0.07839649999999998</v>
-      </c>
-      <c r="C6">
         <v>0.01889968680826737</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42704</v>
       </c>
       <c r="B7">
-        <v>0.07583629999999997</v>
-      </c>
-      <c r="C7">
         <v>-0.002374080405490919</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42735</v>
       </c>
       <c r="B8">
-        <v>0.1137338000000001</v>
-      </c>
-      <c r="C8">
         <v>0.03522608411707262</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42766</v>
       </c>
       <c r="B9">
-        <v>0.1440410000000001</v>
-      </c>
-      <c r="C9">
         <v>0.02721224766636343</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42794</v>
       </c>
       <c r="B10">
-        <v>0.1680751</v>
-      </c>
-      <c r="C10">
         <v>0.02100807575952257</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42825</v>
       </c>
       <c r="B11">
-        <v>0.1765030999999999</v>
-      </c>
-      <c r="C11">
         <v>0.007215289496368849</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42855</v>
       </c>
       <c r="B12">
-        <v>0.1821250000000001</v>
-      </c>
-      <c r="C12">
         <v>0.004778482946623974</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42886</v>
       </c>
       <c r="B13">
-        <v>0.1896891000000001</v>
-      </c>
-      <c r="C13">
         <v>0.006398731098657073</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42916</v>
       </c>
       <c r="B14">
-        <v>0.2000568</v>
-      </c>
-      <c r="C14">
         <v>0.008714629729733581</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42947</v>
       </c>
       <c r="B15">
-        <v>0.2441903999999999</v>
-      </c>
-      <c r="C15">
         <v>0.03677625925706174</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42978</v>
       </c>
       <c r="B16">
-        <v>0.2595319</v>
-      </c>
-      <c r="C16">
         <v>0.0123305082566143</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43008</v>
       </c>
       <c r="B17">
-        <v>0.2745309</v>
-      </c>
-      <c r="C17">
         <v>0.01190839231622487</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43039</v>
       </c>
       <c r="B18">
-        <v>0.2783381</v>
-      </c>
-      <c r="C18">
         <v>0.002987138248276233</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43069</v>
       </c>
       <c r="B19">
-        <v>0.2784272000000001</v>
-      </c>
-      <c r="C19">
         <v>6.96998704803331e-05</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43100</v>
       </c>
       <c r="B20">
-        <v>0.2830465</v>
-      </c>
-      <c r="C20">
         <v>0.003613267927966346</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43131</v>
       </c>
       <c r="B21">
-        <v>0.3063602000000001</v>
-      </c>
-      <c r="C21">
         <v>0.01817058072330191</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43159</v>
       </c>
       <c r="B22">
-        <v>0.3078171000000001</v>
-      </c>
-      <c r="C22">
         <v>0.001115236058171432</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43190</v>
       </c>
       <c r="B23">
-        <v>0.3120559000000001</v>
-      </c>
-      <c r="C23">
         <v>0.003241125995370409</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43220</v>
       </c>
       <c r="B24">
-        <v>0.3233182999999999</v>
-      </c>
-      <c r="C24">
         <v>0.008583780614835002</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43251</v>
       </c>
       <c r="B25">
-        <v>0.3340829000000001</v>
-      </c>
-      <c r="C25">
         <v>0.008134550848424071</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43281</v>
       </c>
       <c r="B26">
-        <v>0.3426608</v>
-      </c>
-      <c r="C26">
         <v>0.006429810321382456</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43312</v>
       </c>
       <c r="B27">
-        <v>0.3564875999999999</v>
-      </c>
-      <c r="C27">
         <v>0.01029805889916502</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43343</v>
       </c>
       <c r="B28">
-        <v>0.3514122</v>
-      </c>
-      <c r="C28">
         <v>-0.003741574932199843</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43373</v>
       </c>
       <c r="B29">
-        <v>0.3418137000000001</v>
-      </c>
-      <c r="C29">
         <v>-0.007102570185469559</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43404</v>
       </c>
       <c r="B30">
-        <v>0.3417984999999999</v>
-      </c>
-      <c r="C30">
         <v>-1.132795111591367e-05</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43434</v>
       </c>
       <c r="B31">
-        <v>0.3439532999999999</v>
-      </c>
-      <c r="C31">
         <v>0.001605904314246898</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43465</v>
       </c>
       <c r="B32">
-        <v>0.345432</v>
-      </c>
-      <c r="C32">
         <v>0.00110026144509634</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43496</v>
       </c>
       <c r="B33">
-        <v>0.3842353999999999</v>
-      </c>
-      <c r="C33">
         <v>0.02884084814394172</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43524</v>
       </c>
       <c r="B34">
-        <v>0.3946422000000001</v>
-      </c>
-      <c r="C34">
         <v>0.007518085435468613</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43555</v>
       </c>
       <c r="B35">
-        <v>0.3933199000000001</v>
-      </c>
-      <c r="C35">
         <v>-0.0009481284877225216</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43585</v>
       </c>
       <c r="B36">
-        <v>0.4123876</v>
-      </c>
-      <c r="C36">
         <v>0.01368508409303559</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43616</v>
       </c>
       <c r="B37">
-        <v>0.4083650999999999</v>
-      </c>
-      <c r="C37">
         <v>-0.002848014241982888</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43646</v>
       </c>
       <c r="B38">
-        <v>0.4373019</v>
-      </c>
-      <c r="C38">
         <v>0.02054637678823479</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43677</v>
       </c>
       <c r="B39">
-        <v>0.4545611000000001</v>
-      </c>
-      <c r="C39">
         <v>0.01200805481437128</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43708</v>
       </c>
       <c r="B40">
-        <v>0.4553395</v>
-      </c>
-      <c r="C40">
         <v>0.0005351442438545906</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43738</v>
       </c>
       <c r="B41">
-        <v>0.4666005</v>
-      </c>
-      <c r="C41">
         <v>0.007737713433875637</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43769</v>
       </c>
       <c r="B42">
-        <v>0.4952044</v>
-      </c>
-      <c r="C42">
         <v>0.01950353896647394</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43799</v>
       </c>
       <c r="B43">
-        <v>0.5055000000000001</v>
-      </c>
-      <c r="C43">
         <v>0.006885747527227704</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43830</v>
       </c>
       <c r="B44">
-        <v>0.5191905000000001</v>
-      </c>
-      <c r="C44">
         <v>0.00909365659249417</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43861</v>
       </c>
       <c r="B45">
-        <v>0.5288831000000001</v>
-      </c>
-      <c r="C45">
         <v>0.006380108353758018</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43890</v>
       </c>
       <c r="B46">
-        <v>0.5408915000000001</v>
-      </c>
-      <c r="C46">
         <v>0.007854361134608689</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43921</v>
       </c>
       <c r="B47">
-        <v>0.4813924000000001</v>
-      </c>
-      <c r="C47">
         <v>-0.03861342605887563</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43951</v>
       </c>
       <c r="B48">
-        <v>0.4943740000000001</v>
-      </c>
-      <c r="C48">
         <v>0.008763106925619546</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43982</v>
       </c>
       <c r="B49">
-        <v>0.4921903999999999</v>
-      </c>
-      <c r="C49">
         <v>-0.001461213859448973</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44012</v>
       </c>
       <c r="B50">
-        <v>0.5260397999999999</v>
-      </c>
-      <c r="C50">
         <v>0.02268437057362127</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>44043</v>
       </c>
       <c r="B51">
-        <v>0.5721346</v>
-      </c>
-      <c r="C51">
         <v>0.03020550315922299</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44074</v>
       </c>
       <c r="B52">
-        <v>0.5786594</v>
-      </c>
-      <c r="C52">
         <v>0.004150280771124892</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44104</v>
       </c>
       <c r="B53">
-        <v>0.5663898999999999</v>
-      </c>
-      <c r="C53">
         <v>-0.007772100809078974</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44135</v>
       </c>
       <c r="B54">
-        <v>0.5350779000000001</v>
-      </c>
-      <c r="C54">
         <v>-0.01998991438849285</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44165</v>
       </c>
       <c r="B55">
-        <v>0.5626905</v>
-      </c>
-      <c r="C55">
-        <v>0.01798775163136668</v>
+        <v>0.01694376552486343</v>
       </c>
     </row>
   </sheetData>
